--- a/miniPCB/ENGDOC/ECObase/data/recorddata.xlsx
+++ b/miniPCB/ENGDOC/ECObase/data/recorddata.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380D2D4E-5232-45E3-9A79-1F91F07FF4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1CDAC7-5030-4B3D-8325-9598D38927A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="312" yWindow="108" windowWidth="22692" windowHeight="7992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="348" yWindow="456" windowWidth="22692" windowHeight="7992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="66">
   <si>
     <t>log</t>
   </si>
@@ -202,6 +202,18 @@
   </si>
   <si>
     <t>Quality Engineering</t>
+  </si>
+  <si>
+    <t>miniPCB™ Development Procedure</t>
+  </si>
+  <si>
+    <t>Initial release of a development procedure.</t>
+  </si>
+  <si>
+    <t>Enable more consistency within the miniPCB project.</t>
+  </si>
+  <si>
+    <t>Cover Sheet</t>
   </si>
 </sst>
 </file>
@@ -581,7 +593,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
@@ -1506,8 +1518,73 @@
         <v>26</v>
       </c>
     </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15">
+        <v>1013</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="3">
+        <v>44941</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="2">
+        <v>44941</v>
+      </c>
+      <c r="I15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="2">
+        <v>44941</v>
+      </c>
+      <c r="L15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N15" t="s">
+        <v>64</v>
+      </c>
+      <c r="O15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q15">
+        <v>20230115133623</v>
+      </c>
+      <c r="R15" t="s">
+        <v>26</v>
+      </c>
+      <c r="S15" t="s">
+        <v>26</v>
+      </c>
+      <c r="T15" t="s">
+        <v>26</v>
+      </c>
+      <c r="U15" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="W+B35mJHrvGefiyWQ94EEulfNClL3VOJT/Kv4XD1eV7/I7+UpxOjhlV5xBDTaZqvXjmrC9gWgcHM5VhAW7tXng==" saltValue="oTlbzszXNtAqbeFB0YddcA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="11igC4bJ7MsJaIHV4hjjwiv3YkC/yJkLAJ6RR8nFUk455JT/NRZqW9/gnxreH86QomIPhWdSYTnWA9OD4EiH1g==" saltValue="CCJ3K9YAubbUmhPv6pE1EA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/miniPCB/ENGDOC/ECObase/data/recorddata.xlsx
+++ b/miniPCB/ENGDOC/ECObase/data/recorddata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1CDAC7-5030-4B3D-8325-9598D38927A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD33D34F-7AAC-424E-A5BA-6661D0AF9635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="348" yWindow="456" windowWidth="22692" windowHeight="7992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="69">
   <si>
     <t>log</t>
   </si>
@@ -214,6 +214,15 @@
   </si>
   <si>
     <t>Cover Sheet</t>
+  </si>
+  <si>
+    <t>miniPCB™ Quality System</t>
+  </si>
+  <si>
+    <t>Initial release of the miniPCB Quality Manual.</t>
+  </si>
+  <si>
+    <t>Maximize quality of the miniPCB project.</t>
   </si>
 </sst>
 </file>
@@ -593,7 +602,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U15"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
@@ -1583,8 +1592,73 @@
         <v>26</v>
       </c>
     </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16">
+        <v>1014</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="3">
+        <v>44942</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="2">
+        <v>44942</v>
+      </c>
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="2">
+        <v>44942</v>
+      </c>
+      <c r="L16" t="s">
+        <v>67</v>
+      </c>
+      <c r="M16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" t="s">
+        <v>68</v>
+      </c>
+      <c r="O16" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q16">
+        <v>20230116003826</v>
+      </c>
+      <c r="R16" t="s">
+        <v>26</v>
+      </c>
+      <c r="S16" t="s">
+        <v>26</v>
+      </c>
+      <c r="T16" t="s">
+        <v>26</v>
+      </c>
+      <c r="U16" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="11igC4bJ7MsJaIHV4hjjwiv3YkC/yJkLAJ6RR8nFUk455JT/NRZqW9/gnxreH86QomIPhWdSYTnWA9OD4EiH1g==" saltValue="CCJ3K9YAubbUmhPv6pE1EA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PMKVnZiEVql498ZGSHhTc/dTQD9GOzY8NXcqd2clXbXbuXPiVi60WNQ9zzrTVFvRveaHv/zKW6rpUM26qfJhGw==" saltValue="E8tbXIIQ+TexgzbdVx/gfA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/miniPCB/ENGDOC/ECObase/data/recorddata.xlsx
+++ b/miniPCB/ENGDOC/ECObase/data/recorddata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD33D34F-7AAC-424E-A5BA-6661D0AF9635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B4A658-62AE-4AFD-B799-656E41E621A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="348" yWindow="456" windowWidth="22692" windowHeight="7992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="72">
   <si>
     <t>log</t>
   </si>
@@ -223,6 +223,15 @@
   </si>
   <si>
     <t>Maximize quality of the miniPCB project.</t>
+  </si>
+  <si>
+    <t>Moved sections included in Initial Release to the miniPCB Quality Manual._x000B_Added sections Idea, Prototype, Released, and Obsolete phases.</t>
+  </si>
+  <si>
+    <t>Quality System improvement.</t>
+  </si>
+  <si>
+    <t>miniPCB™ Development Procedure, Rev B</t>
   </si>
 </sst>
 </file>
@@ -602,7 +611,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
@@ -1657,8 +1666,73 @@
         <v>26</v>
       </c>
     </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17">
+        <v>1015</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="3">
+        <v>44942</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="2">
+        <v>44942</v>
+      </c>
+      <c r="I17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="2">
+        <v>44942</v>
+      </c>
+      <c r="L17" t="s">
+        <v>69</v>
+      </c>
+      <c r="M17" t="s">
+        <v>38</v>
+      </c>
+      <c r="N17" t="s">
+        <v>70</v>
+      </c>
+      <c r="O17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q17">
+        <v>20230116005835</v>
+      </c>
+      <c r="R17" t="s">
+        <v>26</v>
+      </c>
+      <c r="S17" t="s">
+        <v>26</v>
+      </c>
+      <c r="T17" t="s">
+        <v>26</v>
+      </c>
+      <c r="U17" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PMKVnZiEVql498ZGSHhTc/dTQD9GOzY8NXcqd2clXbXbuXPiVi60WNQ9zzrTVFvRveaHv/zKW6rpUM26qfJhGw==" saltValue="E8tbXIIQ+TexgzbdVx/gfA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dlciQvXLa/4VLJDeFSGzXL7qAA6rwTpNtmeT+2xP77ChHhoakZXxpVzlkWlaWOtr8mWJQnkW9JhJt0N7SmXUjw==" saltValue="KeMmmYj1byoXguv2+BVkTA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/miniPCB/ENGDOC/ECObase/data/recorddata.xlsx
+++ b/miniPCB/ENGDOC/ECObase/data/recorddata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B4A658-62AE-4AFD-B799-656E41E621A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCCB879-83C5-4B8E-82F1-239A8AA571F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="348" yWindow="456" windowWidth="22692" windowHeight="7992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="76">
   <si>
     <t>log</t>
   </si>
@@ -232,6 +232,18 @@
   </si>
   <si>
     <t>miniPCB™ Development Procedure, Rev B</t>
+  </si>
+  <si>
+    <t>13A-777, Lucky Number Generator</t>
+  </si>
+  <si>
+    <t>13A-777</t>
+  </si>
+  <si>
+    <t>Product devlopment</t>
+  </si>
+  <si>
+    <t>Schematic, Sheet 1</t>
   </si>
 </sst>
 </file>
@@ -611,7 +623,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
@@ -1731,8 +1743,73 @@
         <v>26</v>
       </c>
     </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18">
+        <v>1016</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="3">
+        <v>44942</v>
+      </c>
+      <c r="F18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" t="s">
+        <v>47</v>
+      </c>
+      <c r="M18" t="s">
+        <v>38</v>
+      </c>
+      <c r="N18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O18" t="s">
+        <v>24</v>
+      </c>
+      <c r="P18" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q18">
+        <v>20230116154452</v>
+      </c>
+      <c r="R18" t="s">
+        <v>26</v>
+      </c>
+      <c r="S18" t="s">
+        <v>26</v>
+      </c>
+      <c r="T18" t="s">
+        <v>26</v>
+      </c>
+      <c r="U18" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dlciQvXLa/4VLJDeFSGzXL7qAA6rwTpNtmeT+2xP77ChHhoakZXxpVzlkWlaWOtr8mWJQnkW9JhJt0N7SmXUjw==" saltValue="KeMmmYj1byoXguv2+BVkTA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="abit0MmlE4G8Wi0dXfR1Bv0IJavN2JjpOhSYZvSiOICm5ngmasQtfWwDbMoBSWRQxKt1vucVBZ0cN+BKIUE5jw==" saltValue="FrcNuznix3hPxQZCVgJbbQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/miniPCB/ENGDOC/ECObase/data/recorddata.xlsx
+++ b/miniPCB/ENGDOC/ECObase/data/recorddata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCCB879-83C5-4B8E-82F1-239A8AA571F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E78D7E2-D944-4993-B949-F55454F4270F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="348" yWindow="456" windowWidth="22692" windowHeight="7992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="79">
   <si>
     <t>log</t>
   </si>
@@ -244,6 +244,15 @@
   </si>
   <si>
     <t>Schematic, Sheet 1</t>
+  </si>
+  <si>
+    <t>00A-100, Load Board, Switched</t>
+  </si>
+  <si>
+    <t>00A-100</t>
+  </si>
+  <si>
+    <t>Development and release of a test setup board with power resistors and switches.</t>
   </si>
 </sst>
 </file>
@@ -623,7 +632,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
@@ -1808,8 +1817,73 @@
         <v>26</v>
       </c>
     </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19">
+        <v>1017</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="3">
+        <v>44956</v>
+      </c>
+      <c r="F19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" t="s">
+        <v>78</v>
+      </c>
+      <c r="M19" t="s">
+        <v>38</v>
+      </c>
+      <c r="N19" t="s">
+        <v>42</v>
+      </c>
+      <c r="O19" t="s">
+        <v>24</v>
+      </c>
+      <c r="P19" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q19">
+        <v>20230130171855</v>
+      </c>
+      <c r="R19" t="s">
+        <v>26</v>
+      </c>
+      <c r="S19" t="s">
+        <v>26</v>
+      </c>
+      <c r="T19" t="s">
+        <v>26</v>
+      </c>
+      <c r="U19" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="abit0MmlE4G8Wi0dXfR1Bv0IJavN2JjpOhSYZvSiOICm5ngmasQtfWwDbMoBSWRQxKt1vucVBZ0cN+BKIUE5jw==" saltValue="FrcNuznix3hPxQZCVgJbbQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Je1mKag2oMoFztvhwwAkxqlEn+7sxMkN2P+AJ18B7Wd3oZDrpgaWHLyySIwKcbcYS2+z/TUsL7MdlBj66qRyzQ==" saltValue="bc5QnTOurIsK4PrPcflHjQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/miniPCB/ENGDOC/ECObase/data/recorddata.xlsx
+++ b/miniPCB/ENGDOC/ECObase/data/recorddata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E78D7E2-D944-4993-B949-F55454F4270F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3820AFB-3089-439D-B130-E458F9403CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="348" yWindow="456" windowWidth="22692" windowHeight="7992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="83">
   <si>
     <t>log</t>
   </si>
@@ -253,6 +253,18 @@
   </si>
   <si>
     <t>Development and release of a test setup board with power resistors and switches.</t>
+  </si>
+  <si>
+    <t>00A-094, Probe Board, 8P, KE6060</t>
+  </si>
+  <si>
+    <t>00A-094</t>
+  </si>
+  <si>
+    <t>Initial release</t>
+  </si>
+  <si>
+    <t>Schematic</t>
   </si>
 </sst>
 </file>
@@ -632,7 +644,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U19"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
@@ -1882,8 +1894,73 @@
         <v>26</v>
       </c>
     </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20">
+        <v>1018</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="3">
+        <v>44957</v>
+      </c>
+      <c r="F20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" t="s">
+        <v>81</v>
+      </c>
+      <c r="M20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20" t="s">
+        <v>32</v>
+      </c>
+      <c r="O20" t="s">
+        <v>24</v>
+      </c>
+      <c r="P20" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q20">
+        <v>20230131182808</v>
+      </c>
+      <c r="R20" t="s">
+        <v>26</v>
+      </c>
+      <c r="S20" t="s">
+        <v>26</v>
+      </c>
+      <c r="T20" t="s">
+        <v>26</v>
+      </c>
+      <c r="U20" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Je1mKag2oMoFztvhwwAkxqlEn+7sxMkN2P+AJ18B7Wd3oZDrpgaWHLyySIwKcbcYS2+z/TUsL7MdlBj66qRyzQ==" saltValue="bc5QnTOurIsK4PrPcflHjQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lOVDQFynCZx4uWl4LSgx5iwgUuG8oc4qyQf/X4X/S9nQicPvz8fZXrkFr8D9WUqUChdTTcVMzEbUhSRYCpPJ2A==" saltValue="gI8cLBa2Gqwj3yt/RLY+2A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/miniPCB/ENGDOC/ECObase/data/recorddata.xlsx
+++ b/miniPCB/ENGDOC/ECObase/data/recorddata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3820AFB-3089-439D-B130-E458F9403CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F412445-DA30-4D36-B107-1F589B455733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="348" yWindow="456" windowWidth="22692" windowHeight="7992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="85">
   <si>
     <t>log</t>
   </si>
@@ -265,6 +265,12 @@
   </si>
   <si>
     <t>Schematic</t>
+  </si>
+  <si>
+    <t>00A-110, Power Limiter, Switched</t>
+  </si>
+  <si>
+    <t>00A-110</t>
   </si>
 </sst>
 </file>
@@ -644,7 +650,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
@@ -1959,8 +1965,73 @@
         <v>26</v>
       </c>
     </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21">
+        <v>1019</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="3">
+        <v>44958</v>
+      </c>
+      <c r="F21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" t="s">
+        <v>81</v>
+      </c>
+      <c r="M21" t="s">
+        <v>31</v>
+      </c>
+      <c r="N21" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" t="s">
+        <v>24</v>
+      </c>
+      <c r="P21" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q21">
+        <v>20230201173349</v>
+      </c>
+      <c r="R21" t="s">
+        <v>26</v>
+      </c>
+      <c r="S21" t="s">
+        <v>26</v>
+      </c>
+      <c r="T21" t="s">
+        <v>26</v>
+      </c>
+      <c r="U21" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lOVDQFynCZx4uWl4LSgx5iwgUuG8oc4qyQf/X4X/S9nQicPvz8fZXrkFr8D9WUqUChdTTcVMzEbUhSRYCpPJ2A==" saltValue="gI8cLBa2Gqwj3yt/RLY+2A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9RaA9H4vVC6ySRjInJXiu1NnE+411iVIBLsGAwCYhUVu7ViNI/znaI3FcJTmmURsBTVuJTJMMOE+m7lpjedRsQ==" saltValue="F9KP0QAsEFUi6vcfhXUTmQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/miniPCB/ENGDOC/ECObase/data/recorddata.xlsx
+++ b/miniPCB/ENGDOC/ECObase/data/recorddata.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F412445-DA30-4D36-B107-1F589B455733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DC6CB7-8E14-4B48-A2AD-8DFE19CB13DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="348" yWindow="456" windowWidth="22692" windowHeight="7992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="86">
   <si>
     <t>log</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>00A-110</t>
+  </si>
+  <si>
+    <t>00A-095, Probe Board, 2CH, BNC</t>
   </si>
 </sst>
 </file>
@@ -650,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
@@ -2030,8 +2033,73 @@
         <v>26</v>
       </c>
     </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22">
+        <v>1020</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="3">
+        <v>44959</v>
+      </c>
+      <c r="F22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22" t="s">
+        <v>81</v>
+      </c>
+      <c r="M22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O22" t="s">
+        <v>24</v>
+      </c>
+      <c r="P22" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q22">
+        <v>20230202183310</v>
+      </c>
+      <c r="R22" t="s">
+        <v>26</v>
+      </c>
+      <c r="S22" t="s">
+        <v>26</v>
+      </c>
+      <c r="T22" t="s">
+        <v>26</v>
+      </c>
+      <c r="U22" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9RaA9H4vVC6ySRjInJXiu1NnE+411iVIBLsGAwCYhUVu7ViNI/znaI3FcJTmmURsBTVuJTJMMOE+m7lpjedRsQ==" saltValue="F9KP0QAsEFUi6vcfhXUTmQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/d5eYN6QeBAlEpFM/uSC/+Uo7nmCm3GHFZRV4rtNRmzaP+xPBJPVtVtHcPwsntKUw9VAm3MF5Jd0P1r8hqqJvA==" saltValue="7+T0TSRLo4Jl62Qc4G7HbA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/miniPCB/ENGDOC/ECObase/data/recorddata.xlsx
+++ b/miniPCB/ENGDOC/ECObase/data/recorddata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DC6CB7-8E14-4B48-A2AD-8DFE19CB13DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B865F6EC-57F0-45C1-83C3-0976FEAE647E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="348" yWindow="456" windowWidth="22692" windowHeight="7992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="88">
   <si>
     <t>log</t>
   </si>
@@ -274,6 +274,12 @@
   </si>
   <si>
     <t>00A-095, Probe Board, 2CH, BNC</t>
+  </si>
+  <si>
+    <t>00A-120, Multiplex Switch, 0805 Components</t>
+  </si>
+  <si>
+    <t>00A-120</t>
   </si>
 </sst>
 </file>
@@ -653,7 +659,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
@@ -2098,8 +2104,73 @@
         <v>26</v>
       </c>
     </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23">
+        <v>1021</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="3">
+        <v>44960</v>
+      </c>
+      <c r="F23" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23" t="s">
+        <v>81</v>
+      </c>
+      <c r="M23" t="s">
+        <v>38</v>
+      </c>
+      <c r="N23" t="s">
+        <v>42</v>
+      </c>
+      <c r="O23" t="s">
+        <v>24</v>
+      </c>
+      <c r="P23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q23">
+        <v>20230203160725</v>
+      </c>
+      <c r="R23" t="s">
+        <v>26</v>
+      </c>
+      <c r="S23" t="s">
+        <v>26</v>
+      </c>
+      <c r="T23" t="s">
+        <v>26</v>
+      </c>
+      <c r="U23" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/d5eYN6QeBAlEpFM/uSC/+Uo7nmCm3GHFZRV4rtNRmzaP+xPBJPVtVtHcPwsntKUw9VAm3MF5Jd0P1r8hqqJvA==" saltValue="7+T0TSRLo4Jl62Qc4G7HbA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="HzT56vtilBS3uOKk5xxYIJRb3Taq5xGS/ogk8Qwf4B84nsWFfLj2qSttTc6D3rMkr8UNJBaIwbfOpZbLXwd2+A==" saltValue="LXrfQhR5G4b0nmV0/QBwOQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/miniPCB/ENGDOC/ECObase/data/recorddata.xlsx
+++ b/miniPCB/ENGDOC/ECObase/data/recorddata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B865F6EC-57F0-45C1-83C3-0976FEAE647E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95DAE51-E392-444F-815D-B39FC8D9C4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="456" windowWidth="22692" windowHeight="7992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="348" yWindow="156" windowWidth="22692" windowHeight="10188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="92">
   <si>
     <t>log</t>
   </si>
@@ -280,6 +280,18 @@
   </si>
   <si>
     <t>00A-120</t>
+  </si>
+  <si>
+    <t>miniPCB Development Procedure</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Revised miniPCB development procedure to include EE0/1/2/3/4 milesones with deliverable lists.</t>
+  </si>
+  <si>
+    <t>Improve product development progress.</t>
   </si>
 </sst>
 </file>
@@ -659,7 +671,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
@@ -2169,8 +2181,73 @@
         <v>26</v>
       </c>
     </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24">
+        <v>1022</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="3">
+        <v>44985</v>
+      </c>
+      <c r="F24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="2">
+        <v>44985</v>
+      </c>
+      <c r="I24" t="s">
+        <v>89</v>
+      </c>
+      <c r="J24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="2">
+        <v>44985</v>
+      </c>
+      <c r="L24" t="s">
+        <v>90</v>
+      </c>
+      <c r="M24" t="s">
+        <v>38</v>
+      </c>
+      <c r="N24" t="s">
+        <v>91</v>
+      </c>
+      <c r="O24" t="s">
+        <v>24</v>
+      </c>
+      <c r="P24" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q24">
+        <v>20230228171742</v>
+      </c>
+      <c r="R24" t="s">
+        <v>26</v>
+      </c>
+      <c r="S24" t="s">
+        <v>26</v>
+      </c>
+      <c r="T24" t="s">
+        <v>26</v>
+      </c>
+      <c r="U24" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HzT56vtilBS3uOKk5xxYIJRb3Taq5xGS/ogk8Qwf4B84nsWFfLj2qSttTc6D3rMkr8UNJBaIwbfOpZbLXwd2+A==" saltValue="LXrfQhR5G4b0nmV0/QBwOQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4/pO/1aLOVTgW77uDxGcTTRTwY/Kwh6gE2MP68ZorxibtdPZds6nXULWlfTh8TQWYazuWyGjUoVtAScwC2mEkQ==" saltValue="54Tv8ZwXkxAtLztFI32esw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/miniPCB/ENGDOC/ECObase/data/recorddata.xlsx
+++ b/miniPCB/ENGDOC/ECObase/data/recorddata.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95DAE51-E392-444F-815D-B39FC8D9C4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D426842C-7A5D-433D-BA30-B62E7A3D1EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="348" yWindow="156" windowWidth="22692" windowHeight="10188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="97">
   <si>
     <t>log</t>
   </si>
@@ -292,6 +292,21 @@
   </si>
   <si>
     <t>Improve product development progress.</t>
+  </si>
+  <si>
+    <t>VIVA PIC16</t>
+  </si>
+  <si>
+    <t>11A-001</t>
+  </si>
+  <si>
+    <t>v5.3</t>
+  </si>
+  <si>
+    <t>Initial release as a miniPCB.</t>
+  </si>
+  <si>
+    <t>Consolidation of developmental files related to the VIVA PIC16 board.</t>
   </si>
 </sst>
 </file>
@@ -350,9 +365,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -390,9 +405,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -425,26 +440,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -477,26 +475,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -671,7 +652,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
@@ -2246,8 +2227,73 @@
         <v>26</v>
       </c>
     </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25">
+        <v>1023</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="3">
+        <v>45133</v>
+      </c>
+      <c r="F25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" t="s">
+        <v>94</v>
+      </c>
+      <c r="J25" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" t="s">
+        <v>95</v>
+      </c>
+      <c r="M25" t="s">
+        <v>38</v>
+      </c>
+      <c r="N25" t="s">
+        <v>96</v>
+      </c>
+      <c r="O25" t="s">
+        <v>24</v>
+      </c>
+      <c r="P25" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q25">
+        <v>20230726194741</v>
+      </c>
+      <c r="R25" t="s">
+        <v>26</v>
+      </c>
+      <c r="S25" t="s">
+        <v>26</v>
+      </c>
+      <c r="T25" t="s">
+        <v>26</v>
+      </c>
+      <c r="U25" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4/pO/1aLOVTgW77uDxGcTTRTwY/Kwh6gE2MP68ZorxibtdPZds6nXULWlfTh8TQWYazuWyGjUoVtAScwC2mEkQ==" saltValue="54Tv8ZwXkxAtLztFI32esw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xxfyDmR89U17b0BJah+WTxB5tlCWpZXFAGni0BYLOY44N6xcos9IMyDOBz10IzJ4a4qxDZMFDR8RvWA8zS2rCg==" saltValue="KUAl0UwUQlIBgqKhJ/FAKA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/miniPCB/ENGDOC/ECObase/data/recorddata.xlsx
+++ b/miniPCB/ENGDOC/ECObase/data/recorddata.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D426842C-7A5D-433D-BA30-B62E7A3D1EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D913F77-160A-42D6-9692-825BB0B7F0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="156" windowWidth="22692" windowHeight="10188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="2520" windowWidth="14160" windowHeight="7170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="105">
   <si>
     <t>log</t>
   </si>
@@ -307,6 +307,30 @@
   </si>
   <si>
     <t>Consolidation of developmental files related to the VIVA PIC16 board.</t>
+  </si>
+  <si>
+    <t>Development Procedure, miniPCB</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Revised to read better.</t>
+  </si>
+  <si>
+    <t>Continual improvement.</t>
+  </si>
+  <si>
+    <t>Quality Manual, Rev B</t>
+  </si>
+  <si>
+    <t>Added miniPCB Product Management Procedure to Quality Manual.</t>
+  </si>
+  <si>
+    <t>Product Management Procedure</t>
+  </si>
+  <si>
+    <t>Revised wording throughout.</t>
   </si>
 </sst>
 </file>
@@ -652,34 +676,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -732,7 +756,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -797,7 +821,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -862,7 +886,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -927,7 +951,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -992,7 +1016,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1057,7 +1081,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1122,7 +1146,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1187,7 +1211,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1252,7 +1276,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -1317,7 +1341,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -1382,7 +1406,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -1447,7 +1471,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -1512,7 +1536,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -1577,7 +1601,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -1642,7 +1666,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -1707,7 +1731,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -1772,7 +1796,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -1837,7 +1861,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -1902,7 +1926,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -1967,7 +1991,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -2032,7 +2056,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
@@ -2097,7 +2121,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
@@ -2162,7 +2186,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
@@ -2227,7 +2251,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
@@ -2292,8 +2316,203 @@
         <v>26</v>
       </c>
     </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26">
+        <v>1024</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="3">
+        <v>44795</v>
+      </c>
+      <c r="F26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="2">
+        <v>45228</v>
+      </c>
+      <c r="I26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J26" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="2">
+        <v>45228</v>
+      </c>
+      <c r="L26" t="s">
+        <v>99</v>
+      </c>
+      <c r="M26" t="s">
+        <v>38</v>
+      </c>
+      <c r="N26" t="s">
+        <v>100</v>
+      </c>
+      <c r="O26" t="s">
+        <v>24</v>
+      </c>
+      <c r="P26" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q26">
+        <v>20231029093827</v>
+      </c>
+      <c r="R26" t="s">
+        <v>26</v>
+      </c>
+      <c r="S26" t="s">
+        <v>26</v>
+      </c>
+      <c r="T26" t="s">
+        <v>26</v>
+      </c>
+      <c r="U26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27">
+        <v>1025</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="3">
+        <v>45228</v>
+      </c>
+      <c r="F27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="2">
+        <v>45228</v>
+      </c>
+      <c r="I27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="2">
+        <v>45228</v>
+      </c>
+      <c r="L27" t="s">
+        <v>102</v>
+      </c>
+      <c r="M27" t="s">
+        <v>38</v>
+      </c>
+      <c r="N27" t="s">
+        <v>100</v>
+      </c>
+      <c r="O27" t="s">
+        <v>24</v>
+      </c>
+      <c r="P27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q27">
+        <v>20231029102659</v>
+      </c>
+      <c r="R27" t="s">
+        <v>26</v>
+      </c>
+      <c r="S27" t="s">
+        <v>26</v>
+      </c>
+      <c r="T27" t="s">
+        <v>26</v>
+      </c>
+      <c r="U27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28">
+        <v>1026</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="3">
+        <v>45228</v>
+      </c>
+      <c r="F28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="2">
+        <v>45228</v>
+      </c>
+      <c r="I28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="2">
+        <v>45228</v>
+      </c>
+      <c r="L28" t="s">
+        <v>104</v>
+      </c>
+      <c r="M28" t="s">
+        <v>38</v>
+      </c>
+      <c r="N28" t="s">
+        <v>100</v>
+      </c>
+      <c r="O28" t="s">
+        <v>24</v>
+      </c>
+      <c r="P28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q28">
+        <v>20231029103437</v>
+      </c>
+      <c r="R28" t="s">
+        <v>26</v>
+      </c>
+      <c r="S28" t="s">
+        <v>26</v>
+      </c>
+      <c r="T28" t="s">
+        <v>26</v>
+      </c>
+      <c r="U28" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xxfyDmR89U17b0BJah+WTxB5tlCWpZXFAGni0BYLOY44N6xcos9IMyDOBz10IzJ4a4qxDZMFDR8RvWA8zS2rCg==" saltValue="KUAl0UwUQlIBgqKhJ/FAKA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ixLu0Hgydl4DCZFr78ffNOgmkECENeb95wxKOERbBGck1TfiCZB0cmFnfkdYAqKvLDaLJEDlxACETL/YMbjhEg==" saltValue="zyjW5u9zWSwsI5fEYfIY6w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2307,12 +2526,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.6640625" customWidth="1"/>
+    <col min="1" max="1" width="63.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>

--- a/miniPCB/ENGDOC/ECObase/data/recorddata.xlsx
+++ b/miniPCB/ENGDOC/ECObase/data/recorddata.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D426842C-7A5D-433D-BA30-B62E7A3D1EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3189BA-AF52-49B6-BD65-7BC6E830372A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="348" yWindow="156" windowWidth="22692" windowHeight="10188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="102">
   <si>
     <t>log</t>
   </si>
@@ -307,6 +307,21 @@
   </si>
   <si>
     <t>Consolidation of developmental files related to the VIVA PIC16 board.</t>
+  </si>
+  <si>
+    <t>VIVA Board Revision</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>Remove AREF from ground._x000B_Add 1uF capacitor to AREF signal.</t>
+  </si>
+  <si>
+    <t>Correct ADC issue with Atmega328P.</t>
+  </si>
+  <si>
+    <t>Added C24</t>
   </si>
 </sst>
 </file>
@@ -652,7 +667,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
@@ -2292,8 +2307,73 @@
         <v>26</v>
       </c>
     </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26">
+        <v>1024</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="3">
+        <v>45357</v>
+      </c>
+      <c r="F26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" t="s">
+        <v>30</v>
+      </c>
+      <c r="L26" t="s">
+        <v>99</v>
+      </c>
+      <c r="M26" t="s">
+        <v>38</v>
+      </c>
+      <c r="N26" t="s">
+        <v>100</v>
+      </c>
+      <c r="O26" t="s">
+        <v>24</v>
+      </c>
+      <c r="P26" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q26">
+        <v>20240306185145</v>
+      </c>
+      <c r="R26" t="s">
+        <v>26</v>
+      </c>
+      <c r="S26" t="s">
+        <v>26</v>
+      </c>
+      <c r="T26" t="s">
+        <v>26</v>
+      </c>
+      <c r="U26" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xxfyDmR89U17b0BJah+WTxB5tlCWpZXFAGni0BYLOY44N6xcos9IMyDOBz10IzJ4a4qxDZMFDR8RvWA8zS2rCg==" saltValue="KUAl0UwUQlIBgqKhJ/FAKA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mNbk8/h4Lf/iwYjEx38Aammy0r/zP+UeS2JU5WSmYaGZJQ1rJc+9M+IBV7F6PsVskkNcqA2kPOmZgEiqTGm//g==" saltValue="8X90CD8x0q9jRNWapjMO3g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
